--- a/stimuli/hangok_stim.xlsx
+++ b/stimuli/hangok_stim.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_ALEX_\_PhD\kutatás\szópár_ps\_kísérlet_main\covariates\Álszó\alszo_test\alszo\stimuli\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD950B3-4E1A-49F6-AC25-93E340573380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E214FAE3-AA68-423C-9CE1-C453726BFB81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9263DC25-822D-4F37-81C5-F03467AA8E3A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9263DC25-822D-4F37-81C5-F03467AA8E3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -199,9 +199,6 @@
     <t>tesilbengecsék</t>
   </si>
   <si>
-    <t>fortiklempelsz</t>
-  </si>
-  <si>
     <t>abalamofálsag</t>
   </si>
   <si>
@@ -254,6 +251,9 @@
   </si>
   <si>
     <t>hangfajl</t>
+  </si>
+  <si>
+    <t>fortiklempelesz</t>
   </si>
 </sst>
 </file>
@@ -626,7 +626,7 @@
   <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -636,10 +636,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -796,7 +796,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
@@ -804,7 +804,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B22" t="s">
         <v>20</v>
@@ -812,7 +812,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B23" t="s">
         <v>21</v>
@@ -820,7 +820,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B24" t="s">
         <v>22</v>
@@ -828,7 +828,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B25" t="s">
         <v>23</v>
@@ -836,7 +836,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B26" t="s">
         <v>24</v>
@@ -844,7 +844,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B27" t="s">
         <v>25</v>
@@ -852,7 +852,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -860,7 +860,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B29" t="s">
         <v>27</v>
@@ -868,7 +868,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B30" t="s">
         <v>28</v>
@@ -876,7 +876,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B31" t="s">
         <v>29</v>
@@ -884,7 +884,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B32" t="s">
         <v>30</v>
@@ -892,7 +892,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B33" t="s">
         <v>31</v>
@@ -900,7 +900,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B34" t="s">
         <v>32</v>
@@ -908,7 +908,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B35" t="s">
         <v>33</v>
@@ -916,7 +916,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B36" t="s">
         <v>34</v>
@@ -924,7 +924,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B37" t="s">
         <v>35</v>
